--- a/60+ Prolog Implementation/Knowledge Base for 60+.xlsx
+++ b/60+ Prolog Implementation/Knowledge Base for 60+.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="19">
   <si>
     <t>Severity</t>
   </si>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,72 +572,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>60</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B5" s="8">
+        <v>60</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>60</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -652,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -662,53 +662,53 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>60</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -718,29 +718,29 @@
         <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -751,29 +751,29 @@
         <v>60</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -784,29 +784,29 @@
         <v>60</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -817,29 +817,29 @@
         <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -866,10 +866,10 @@
         <v>14</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
@@ -886,17 +886,17 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -929,16 +929,16 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
@@ -962,10 +962,10 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>12</v>
@@ -998,10 +998,10 @@
         <v>12</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
@@ -1034,10 +1034,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1084,25 +1084,58 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8">
+        <v>60</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
